--- a/doc/WorkingDrafts/Components.xlsx
+++ b/doc/WorkingDrafts/Components.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>SST core</t>
   </si>
@@ -36,15 +36,6 @@
     <t>scheduler</t>
   </si>
   <si>
-    <t>McPAT</t>
-  </si>
-  <si>
-    <t>ORION</t>
-  </si>
-  <si>
-    <t>HotSpot</t>
-  </si>
-  <si>
     <t>DRAMSimTrace</t>
   </si>
   <si>
@@ -102,15 +93,9 @@
     <t>http://www.pdl.cmu.edu/DiskSim/</t>
   </si>
   <si>
-    <t>http://www.pdl.cmu.edu/DiskSim/#code</t>
-  </si>
-  <si>
     <t>[sst]disksim</t>
   </si>
   <si>
-    <t>IntSim</t>
-  </si>
-  <si>
     <t>http://www.hpl.hp.com/research/mcpat/</t>
   </si>
   <si>
@@ -120,7 +105,28 @@
     <t>a glue directory in sst directory</t>
   </si>
   <si>
-    <t>sent email to Genie</t>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>http://projects.csail.mit.edu/cgi-bin/wiki/view/LSPgroup/OrionPage</t>
+  </si>
+  <si>
+    <t>http://deepaksekar.weebly.com/intsim.html</t>
+  </si>
+  <si>
+    <t>http://lava.cs.virginia.edu/HotSpot/documentation.htm</t>
+  </si>
+  <si>
+    <t>McPAT v0.7</t>
+  </si>
+  <si>
+    <t>ORION v2.0 (May 2009)</t>
+  </si>
+  <si>
+    <t>IntSim V1.0</t>
+  </si>
+  <si>
+    <t>HotSpot v5.0</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,16 +501,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,44 +529,42 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -572,10 +576,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -583,10 +587,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -594,64 +598,69 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -667,17 +676,19 @@
     <hyperlink ref="B8" r:id="rId9"/>
     <hyperlink ref="C8" r:id="rId10"/>
     <hyperlink ref="B6" r:id="rId11"/>
-    <hyperlink ref="C6" r:id="rId12" location="code"/>
-    <hyperlink ref="C10" r:id="rId13"/>
-    <hyperlink ref="C11" r:id="rId14"/>
-    <hyperlink ref="C12" r:id="rId15"/>
-    <hyperlink ref="C13" r:id="rId16"/>
-    <hyperlink ref="C14" r:id="rId17"/>
-    <hyperlink ref="B11" r:id="rId18"/>
-    <hyperlink ref="C5" r:id="rId19"/>
+    <hyperlink ref="C10" r:id="rId12"/>
+    <hyperlink ref="C11" r:id="rId13"/>
+    <hyperlink ref="C12" r:id="rId14"/>
+    <hyperlink ref="C13" r:id="rId15"/>
+    <hyperlink ref="C14" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="C5" r:id="rId18"/>
+    <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="B13" r:id="rId20"/>
+    <hyperlink ref="B14" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/doc/WorkingDrafts/Components.xlsx
+++ b/doc/WorkingDrafts/Components.xlsx
@@ -15,14 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sue Kelly</author>
+  </authors>
+  <commentList>
+    <comment ref="D32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sue Kelly 9/5/2012:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Site not found. Sekar has gone to work for Rambus.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
-  <si>
-    <t>SST core</t>
-  </si>
-  <si>
-    <t>GEM5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>genericProc</t>
   </si>
@@ -42,9 +70,6 @@
     <t xml:space="preserve">http://www.cdkersey.com/qsim-web/ </t>
   </si>
   <si>
-    <t>Component</t>
-  </si>
-  <si>
     <t>Main Web Site</t>
   </si>
   <si>
@@ -54,21 +79,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>http://www.cdkersey.com/qsim-web/releases/</t>
-  </si>
-  <si>
     <t>http://sst.sandia.gov</t>
   </si>
   <si>
     <t>http://code.google.com/p/sst-simulator/</t>
   </si>
   <si>
-    <t>Tau</t>
-  </si>
-  <si>
-    <t>http://repo.gem5.org</t>
-  </si>
-  <si>
     <t>http://www.m5sim.org</t>
   </si>
   <si>
@@ -87,27 +103,15 @@
     <t>http://zesto.cc.gatech.edu</t>
   </si>
   <si>
-    <t>http://zesto.cc.gatech.edu/download.html</t>
-  </si>
-  <si>
     <t>http://www.pdl.cmu.edu/DiskSim/</t>
   </si>
   <si>
-    <t>[sst]disksim</t>
-  </si>
-  <si>
     <t>http://www.hpl.hp.com/research/mcpat/</t>
   </si>
   <si>
     <t>A pre-existing stand-alone Java code with no URL yet.</t>
   </si>
   <si>
-    <t>a glue directory in sst directory</t>
-  </si>
-  <si>
-    <t>Iris</t>
-  </si>
-  <si>
     <t>http://projects.csail.mit.edu/cgi-bin/wiki/view/LSPgroup/OrionPage</t>
   </si>
   <si>
@@ -117,23 +121,320 @@
     <t>http://lava.cs.virginia.edu/HotSpot/documentation.htm</t>
   </si>
   <si>
-    <t>McPAT v0.7</t>
-  </si>
-  <si>
-    <t>ORION v2.0 (May 2009)</t>
-  </si>
-  <si>
-    <t>IntSim V1.0</t>
-  </si>
-  <si>
-    <t>HotSpot v5.0</t>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>cpu_data</t>
+  </si>
+  <si>
+    <t>cpu_power</t>
+  </si>
+  <si>
+    <t>cpu_PowerAndData</t>
+  </si>
+  <si>
+    <t>cpu_router_power</t>
+  </si>
+  <si>
+    <t>event_test</t>
+  </si>
+  <si>
+    <t>introspector_cpu</t>
+  </si>
+  <si>
+    <t>introspector_cpuTemperature</t>
+  </si>
+  <si>
+    <t>introspector_dram</t>
+  </si>
+  <si>
+    <t>introspector_mesmthi</t>
+  </si>
+  <si>
+    <t>introspector_router</t>
+  </si>
+  <si>
+    <t>macro_component</t>
+  </si>
+  <si>
+    <t>mcniagara</t>
+  </si>
+  <si>
+    <t>mcopteron</t>
+  </si>
+  <si>
+    <t>mesmthi</t>
+  </si>
+  <si>
+    <t>palacios</t>
+  </si>
+  <si>
+    <t>parser</t>
+  </si>
+  <si>
+    <t>patterns</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>resil</t>
+  </si>
+  <si>
+    <t>simpleComponent</t>
+  </si>
+  <si>
+    <t>SS_router</t>
+  </si>
+  <si>
+    <t>Genie</t>
+  </si>
+  <si>
+    <t>Jeanine Cook</t>
+  </si>
+  <si>
+    <t>Rolf Riesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott </t>
+  </si>
+  <si>
+    <t>replaces SS router</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Jin Wang</t>
+  </si>
+  <si>
+    <t>External Dependency</t>
+  </si>
+  <si>
+    <t>DRAMSimC</t>
+  </si>
+  <si>
+    <t>http://www.cdkersey.com/qsim-web/releases/ https://sst-simulator.googlecode.com/svn/qsim/trunk</t>
+  </si>
+  <si>
+    <t>https://svn.research.cc.gatech.edu/macsim/trunk macsim --username readonly</t>
+  </si>
+  <si>
+    <t>http://code.google.com/p/macsim/</t>
+  </si>
+  <si>
+    <t>V5.0</t>
+  </si>
+  <si>
+    <t>V4.0</t>
+  </si>
+  <si>
+    <t>Not ready yet</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>Ron Oldfield</t>
+  </si>
+  <si>
+    <t>V2.3</t>
+  </si>
+  <si>
+    <t>Copmponent Directory Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>model enabler</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model  </t>
+  </si>
+  <si>
+    <t>Disksim</t>
+  </si>
+  <si>
+    <t>sstdisksim</t>
+  </si>
+  <si>
+    <t>Mike?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hg clone  https://code.google.com/p/sst-gem5-devel.devel// </t>
+  </si>
+  <si>
+    <t>support test directory</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>libHotSpot</t>
+  </si>
+  <si>
+    <t>tech model</t>
+  </si>
+  <si>
+    <t>libIntSim</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>libsim-panalyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bitbucket.org/ghendry/sstmacro/src </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bitbucket.org/ghendry/sstmacro/ </t>
+  </si>
+  <si>
+    <t>V0.7</t>
+  </si>
+  <si>
+    <t>V2.0 (May 2009)</t>
+  </si>
+  <si>
+    <t>libMcPAT</t>
+  </si>
+  <si>
+    <t>model?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>portals4</t>
+  </si>
+  <si>
+    <t>portals4_sm</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>Scott and Brian</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike   </t>
+  </si>
+  <si>
+    <t>Chad Kersey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon S. </t>
+  </si>
+  <si>
+    <t>Vitus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ron O. </t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>gem5</t>
+  </si>
+  <si>
+    <t>SST/Macro</t>
+  </si>
+  <si>
+    <t>merlin</t>
+  </si>
+  <si>
+    <t>mosaic_cpu</t>
+  </si>
+  <si>
+    <t>mosaic_nic</t>
+  </si>
+  <si>
+    <t>libORION</t>
+  </si>
+  <si>
+    <t>PhoenixSim</t>
+  </si>
+  <si>
+    <t>sampleConfigs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule </t>
+  </si>
+  <si>
+    <t>Jon S.</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>technology interface</t>
+  </si>
+  <si>
+    <t>support directory</t>
+  </si>
+  <si>
+    <t>libMcPATbeta[06]</t>
+  </si>
+  <si>
+    <t>delete?</t>
+  </si>
+  <si>
+    <t>state machine version</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>V4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNeT++ </t>
+  </si>
+  <si>
+    <t>http://www.omnetpp.org/</t>
+  </si>
+  <si>
+    <t>http://www.omnetpp.org/omnetpp</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +443,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -171,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -182,7 +513,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,211 +820,878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="G47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
+      <c r="E54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:H54">
+    <sortCondition ref="A3:A54"/>
+    <sortCondition ref="B3:B54"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2" display="http://www.cdkersey.com/qsim-web/releases"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="C2" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-    <hyperlink ref="C4" r:id="rId8" location="Getting_DRAMSim2"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
-    <hyperlink ref="B6" r:id="rId11"/>
-    <hyperlink ref="C10" r:id="rId12"/>
-    <hyperlink ref="C11" r:id="rId13"/>
-    <hyperlink ref="C12" r:id="rId14"/>
-    <hyperlink ref="C13" r:id="rId15"/>
-    <hyperlink ref="C14" r:id="rId16"/>
-    <hyperlink ref="B11" r:id="rId17"/>
-    <hyperlink ref="C5" r:id="rId18"/>
-    <hyperlink ref="B12" r:id="rId19"/>
-    <hyperlink ref="B13" r:id="rId20"/>
-    <hyperlink ref="B14" r:id="rId21"/>
+    <hyperlink ref="D48" r:id="rId1"/>
+    <hyperlink ref="D25" r:id="rId2"/>
+    <hyperlink ref="E25" r:id="rId3"/>
+    <hyperlink ref="D21" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId5"/>
+    <hyperlink ref="E20" r:id="rId6" location="Getting_DRAMSim2"/>
+    <hyperlink ref="D54" r:id="rId7"/>
+    <hyperlink ref="D19" r:id="rId8"/>
+    <hyperlink ref="E50" r:id="rId9"/>
+    <hyperlink ref="E33" r:id="rId10"/>
+    <hyperlink ref="E34" r:id="rId11"/>
+    <hyperlink ref="E32" r:id="rId12"/>
+    <hyperlink ref="E31" r:id="rId13"/>
+    <hyperlink ref="D33" r:id="rId14"/>
+    <hyperlink ref="D34" r:id="rId15"/>
+    <hyperlink ref="D32" r:id="rId16"/>
+    <hyperlink ref="D31" r:id="rId17"/>
+    <hyperlink ref="E48" r:id="rId18"/>
+    <hyperlink ref="E54" r:id="rId19" display="http://code.google.com/p/sst-simulator/"/>
+    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E19" r:id="rId21"/>
+    <hyperlink ref="D22" r:id="rId22"/>
+    <hyperlink ref="E28" r:id="rId23"/>
+    <hyperlink ref="E29" r:id="rId24"/>
+    <hyperlink ref="E24" r:id="rId25"/>
+    <hyperlink ref="D24" r:id="rId26"/>
+    <hyperlink ref="E37" r:id="rId27"/>
+    <hyperlink ref="E38" r:id="rId28"/>
+    <hyperlink ref="E39" r:id="rId29"/>
+    <hyperlink ref="E42" r:id="rId30"/>
+    <hyperlink ref="E43" r:id="rId31"/>
+    <hyperlink ref="E45" r:id="rId32"/>
+    <hyperlink ref="E51" r:id="rId33"/>
+    <hyperlink ref="E52" r:id="rId34"/>
+    <hyperlink ref="E53" r:id="rId35"/>
+    <hyperlink ref="E46" r:id="rId36"/>
+    <hyperlink ref="E36" r:id="rId37"/>
+    <hyperlink ref="E23" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
+  <legacyDrawing r:id="rId40"/>
 </worksheet>
 </file>
 
